--- a/biology/Zoologie/Bungarus/Bungarus.xlsx
+++ b/biology/Zoologie/Bungarus/Bungarus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bungarus est un genre de serpents de la famille des Elapidae[1]. Les espèces regroupées sous ce genre sont communément appelées Bongares.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bungarus est un genre de serpents de la famille des Elapidae. Les espèces regroupées sous ce genre sont communément appelées Bongares.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 16 espèces de ce genre se rencontrent en Asie du Sud, en Asie du Sud-Est et en Asie de l'Est[1]. Ils habitent souvent les zones humides comme les marécages et le bord des cours d'eau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 16 espèces de ce genre se rencontrent en Asie du Sud, en Asie du Sud-Est et en Asie de l'Est. Ils habitent souvent les zones humides comme les marécages et le bord des cours d'eau.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces serpents peuvent faire entre 90cm et 1,5m de longueur maximale.
 Ce sont des serpents extrêmement venimeux ; leur venin contient de l’α-bungarotoxine.
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 janvier 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 janvier 2022) :
 Bungarus andamanensis Biswas &amp; Sanyal, 1978
 Bungarus bungaroides (Cantor, 1839)
 Bungarus caeruleus (Schneider, 1801) - Bongare indien
@@ -591,7 +609,7 @@
 Bungarus persicus Abtin et al., 2014
 Bungarus sindanus Boulenger, 1897
 Bungarus slowinskii Kuchet al., 2005
-Bungarus suzhenae Chen et al., 2021[3]
+Bungarus suzhenae Chen et al., 2021
 Bungarus walli Wall, 1907</t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daudin, 1803 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suite à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigée par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 5, F. Dufart, Paris, p. 1-365 (texte intégral).</t>
         </is>
